--- a/4 sem/Lab 3.11/3.11.xlsx
+++ b/4 sem/Lab 3.11/3.11.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitryvasilkov/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitryvasilkov/Desktop/bimbim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34D49117-234C-254D-9C65-DDD7DB9DEE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58884E6F-19F9-7242-A080-63A8729D2105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="860" windowWidth="30660" windowHeight="18760" xr2:uid="{D5CA9E51-F906-9342-970A-F30740968A24}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Ω Кгц</t>
   </si>
@@ -99,16 +99,64 @@
     <t>Ω**2</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>C Ф</t>
   </si>
   <si>
-    <t>554.091</t>
+    <t>Ом</t>
   </si>
   <si>
-    <t>Ом</t>
+    <t>L [мГН]</t>
+  </si>
+  <si>
+    <t>L [ГН]</t>
+  </si>
+  <si>
+    <t>R [ОМ]</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>x_avg</t>
+  </si>
+  <si>
+    <t>y_avg</t>
+  </si>
+  <si>
+    <t>D(x)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>(x-x_avg)</t>
+  </si>
+  <si>
+    <t>(y-y_avg)</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>(x-x_avg)^2</t>
+  </si>
+  <si>
+    <t>(y-y_avg)^2</t>
+  </si>
+  <si>
+    <t>D(y)</t>
+  </si>
+  <si>
+    <t>SE_a</t>
+  </si>
+  <si>
+    <t>SE_b</t>
   </si>
 </sst>
 </file>
@@ -202,11 +250,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1265,6 +1316,63 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -1277,7 +1385,37 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -3743,16 +3881,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>27850</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>685173</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>22280</xdr:rowOff>
+      <xdr:rowOff>66923</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>554031</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>432569</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>67023</xdr:rowOff>
+      <xdr:rowOff>111666</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3775,8 +3913,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5102280" y="1425964"/>
-          <a:ext cx="1520658" cy="445796"/>
+          <a:off x="5361082" y="1521650"/>
+          <a:ext cx="1513851" cy="460380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3789,14 +3927,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>43792</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>745066</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>147321</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>328448</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>43792</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3819,53 +3957,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Рисунок 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95290E58-D813-2EB1-22A7-28B000EB84A3}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A1186344-200C-B562-AEDF-9A558D1E2103}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8763000" y="400050"/>
-          <a:ext cx="1562100" cy="838200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4190,8 +4281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6640E234-AD4F-B24F-A5AC-B64886A4E2D8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4329,13 +4420,13 @@
         <f>J5*10^-6</f>
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="7">
         <f>(1/K5)*(SQRT((M5/J6)))</f>
         <v>13.333333333333336</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -4348,10 +4439,10 @@
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="5"/>
+      <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -4487,25 +4578,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F20E567-B414-4A4D-9EEB-139749A176C1}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="158" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" customWidth="1"/>
+    <col min="7" max="7" width="25.5" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
       <c r="D1" s="1"/>
       <c r="F1" t="s">
         <v>18</v>
@@ -4513,11 +4608,14 @@
       <c r="G1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
-        <v>20</v>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4529,7 +4627,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <f>B2*10^3</f>
@@ -4543,16 +4641,16 @@
         <f>(1/($C$11*C2))-($B$11^2/(4*$C$11^2))</f>
         <v>9999859374.9999981</v>
       </c>
-      <c r="H2">
-        <f>E2^2</f>
-        <v>153512100</v>
-      </c>
-      <c r="I2">
-        <f>(H2/(10^9))*(10^3)</f>
-        <v>153.5121</v>
+      <c r="I2" s="1">
+        <f>1/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="J2" s="1">
+        <f>SQRT(140625*4*I2^2)</f>
+        <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -4575,8 +4673,11 @@
         <f t="shared" ref="G3:G7" si="3">(1/($C$11*C3))-($B$11^2/(4*$C$11^2))</f>
         <v>3333192708.333333</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>10</v>
       </c>
@@ -4599,8 +4700,12 @@
         <f t="shared" si="3"/>
         <v>999859374.99999988</v>
       </c>
+      <c r="I4" s="1">
+        <f>I2*10^3</f>
+        <v>100</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>30</v>
       </c>
@@ -4624,7 +4729,7 @@
         <v>333192708.33333331</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>100</v>
       </c>
@@ -4648,7 +4753,7 @@
         <v>99859374.999999985</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>300</v>
       </c>
@@ -4672,25 +4777,303 @@
         <v>33192708.333333328</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K9" t="s">
-        <v>22</v>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>75</v>
-      </c>
-      <c r="C11">
-        <v>0.1</v>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>10</v>
+      </c>
+      <c r="B109" s="1">
+        <v>140625</v>
+      </c>
+      <c r="C109" s="1">
+        <v>100</v>
+      </c>
+      <c r="D109" s="1">
+        <f>1/B115</f>
+        <v>3.0000000002999999E-7</v>
+      </c>
+      <c r="E109" s="1">
+        <f>SQRT(C115)</f>
+        <v>5761.3113377077616</v>
+      </c>
+      <c r="F109" s="1">
+        <f>AVERAGE(D109:D114)</f>
+        <v>7.4000000005550012E-8</v>
+      </c>
+      <c r="G109" s="4">
+        <f>AVERAGE(E109:E114)</f>
+        <v>37226.917265117416</v>
+      </c>
+      <c r="H109" s="1">
+        <f>D109-$F$109</f>
+        <v>2.2600000002444996E-7</v>
+      </c>
+      <c r="I109" s="1">
+        <f>E109-$G$109</f>
+        <v>-31465.605927409655</v>
+      </c>
+      <c r="J109" s="1">
+        <f>H109^2</f>
+        <v>5.1076000011051382E-14</v>
+      </c>
+      <c r="K109" s="1">
+        <f>I109^2</f>
+        <v>990084356.37903762</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D110" s="1">
+        <f t="shared" ref="D110:D114" si="4">1/B116</f>
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="E110" s="1">
+        <f t="shared" ref="E110:E114" si="5">SQRT(C116)</f>
+        <v>9992.9662763365704</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H110" s="1">
+        <f t="shared" ref="H110:H114" si="6">D110-$F$109</f>
+        <v>2.5999999994449983E-8</v>
+      </c>
+      <c r="I110" s="1">
+        <f t="shared" ref="I110:I114" si="7">E110-$G$109</f>
+        <v>-27233.950988780845</v>
+      </c>
+      <c r="J110" s="1">
+        <f t="shared" ref="J110:J114" si="8">H110^2</f>
+        <v>6.7599999971139912E-16</v>
+      </c>
+      <c r="K110" s="1">
+        <f t="shared" ref="K110:K114" si="9">I110^2</f>
+        <v>741688086.45931721</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D111" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0000000003000003E-8</v>
+      </c>
+      <c r="E111" s="1">
+        <f t="shared" si="5"/>
+        <v>18253.567002095784</v>
+      </c>
+      <c r="F111" s="6">
+        <f>(1/C109)*SUM(J109:J114)</f>
+        <v>6.8154000013253388E-16</v>
+      </c>
+      <c r="G111" s="6">
+        <f>(1/C109)*SUM(K109:K114)</f>
+        <v>64840960.352466166</v>
+      </c>
+      <c r="H111" s="1">
+        <f t="shared" si="6"/>
+        <v>-4.4000000002550009E-8</v>
+      </c>
+      <c r="I111" s="1">
+        <f t="shared" si="7"/>
+        <v>-18973.350263021632</v>
+      </c>
+      <c r="J111" s="1">
+        <f t="shared" si="8"/>
+        <v>1.9360000002244009E-15</v>
+      </c>
+      <c r="K111" s="1">
+        <f t="shared" si="9"/>
+        <v>359988020.20330304</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D112" s="1">
+        <f t="shared" si="4"/>
+        <v>1E-8</v>
+      </c>
+      <c r="E112" s="1">
+        <f t="shared" si="5"/>
+        <v>31620.553047029396</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H112" s="1">
+        <f t="shared" si="6"/>
+        <v>-6.4000000005550015E-8</v>
+      </c>
+      <c r="I112" s="1">
+        <f t="shared" si="7"/>
+        <v>-5606.3642180880197</v>
+      </c>
+      <c r="J112" s="1">
+        <f t="shared" si="8"/>
+        <v>4.0960000007104019E-15</v>
+      </c>
+      <c r="K112" s="1">
+        <f t="shared" si="9"/>
+        <v>31431319.745857693</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D113" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0000000002999998E-9</v>
+      </c>
+      <c r="E113" s="1">
+        <f t="shared" si="5"/>
+        <v>57733.809055006932</v>
+      </c>
+      <c r="F113" s="6">
+        <f>SQRT((1/(C109-2))*((F111-B109^2))*-1)</f>
+        <v>14205.270157765464</v>
+      </c>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1">
+        <f t="shared" si="6"/>
+        <v>-7.1000000005250017E-8</v>
+      </c>
+      <c r="I113" s="1">
+        <f t="shared" si="7"/>
+        <v>20506.891789889516</v>
+      </c>
+      <c r="J113" s="1">
+        <f t="shared" si="8"/>
+        <v>5.0410000007455024E-15</v>
+      </c>
+      <c r="K113" s="1">
+        <f t="shared" si="9"/>
+        <v>420532610.88223803</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D114" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="E114" s="1">
+        <f t="shared" si="5"/>
+        <v>99999.296872528052</v>
+      </c>
+      <c r="H114" s="1">
+        <f t="shared" si="6"/>
+        <v>-7.3000000005550017E-8</v>
+      </c>
+      <c r="I114" s="1">
+        <f t="shared" si="7"/>
+        <v>62772.379607410636</v>
+      </c>
+      <c r="J114" s="1">
+        <f t="shared" si="8"/>
+        <v>5.3290000008103026E-15</v>
+      </c>
+      <c r="K114" s="1">
+        <f t="shared" si="9"/>
+        <v>3940371641.5768628</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B115" s="1">
+        <v>3333333.3330000001</v>
+      </c>
+      <c r="C115" s="1">
+        <v>33192708.329999998</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B116" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="C116" s="1">
+        <v>99859375</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B117" s="1">
+        <v>33333333.329999998</v>
+      </c>
+      <c r="C117" s="1">
+        <v>333192708.30000001</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B118" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="C118" s="1">
+        <v>999859375</v>
+      </c>
+      <c r="D118" s="5"/>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B119" s="1">
+        <v>333333333.30000001</v>
+      </c>
+      <c r="C119" s="1">
+        <v>3333192708</v>
+      </c>
+      <c r="E119" s="5"/>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B120" s="1">
+        <v>1000000000</v>
+      </c>
+      <c r="C120" s="1">
+        <v>9999859375</v>
       </c>
     </row>
   </sheetData>
@@ -4698,6 +5081,7 @@
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>